--- a/artfynd/A 55686-2023 artfynd.xlsx
+++ b/artfynd/A 55686-2023 artfynd.xlsx
@@ -801,12 +801,7 @@
         <v>123932794</v>
       </c>
       <c r="B3" t="n">
-        <v>56722</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
